--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -468,13 +468,13 @@
         <v>31.03588685000054</v>
       </c>
       <c r="C2" t="n">
-        <v>114.9305471438277</v>
+        <v>114.4665214246891</v>
       </c>
       <c r="D2" t="n">
         <v>62.07177370000108</v>
       </c>
       <c r="E2" t="n">
-        <v>35.22013079086565</v>
+        <v>35.07793146331927</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -490,13 +490,13 @@
         <v>101.7753319500007</v>
       </c>
       <c r="C3" t="n">
-        <v>110.7788070891304</v>
+        <v>110.3480764332941</v>
       </c>
       <c r="D3" t="n">
         <v>79.4071164999992</v>
       </c>
       <c r="E3" t="n">
-        <v>29.95117658959898</v>
+        <v>29.83472029010908</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         <v>181.5678911500003</v>
       </c>
       <c r="C4" t="n">
-        <v>107.8117828360924</v>
+        <v>107.3764987336028</v>
       </c>
       <c r="D4" t="n">
         <v>80.1780019</v>
       </c>
       <c r="E4" t="n">
-        <v>31.6316207956567</v>
+        <v>31.50390987848114</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -534,13 +534,13 @@
         <v>312.5842677500011</v>
       </c>
       <c r="C5" t="n">
-        <v>94.82174743135317</v>
+        <v>94.43890987741062</v>
       </c>
       <c r="D5" t="n">
         <v>181.8547513000014</v>
       </c>
       <c r="E5" t="n">
-        <v>32.61023777766344</v>
+        <v>32.4785757486197</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -556,13 +556,13 @@
         <v>404.2666151000018</v>
       </c>
       <c r="C6" t="n">
-        <v>75.95642701525063</v>
+        <v>75.63136046204903</v>
       </c>
       <c r="D6" t="n">
         <v>1.509943400000001</v>
       </c>
       <c r="E6" t="n">
-        <v>16.45310375658325</v>
+        <v>16.38269031116741</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -578,13 +578,13 @@
         <v>421.7112789500016</v>
       </c>
       <c r="C7" t="n">
-        <v>75.95642701525274</v>
+        <v>75.63136046205113</v>
       </c>
       <c r="D7" t="n">
         <v>33.37938429999963</v>
       </c>
       <c r="E7" t="n">
-        <v>16.08886046739866</v>
+        <v>16.02000585400263</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>480.6051788500009</v>
       </c>
       <c r="C8" t="n">
-        <v>75.9564270152518</v>
+        <v>75.6313604620502</v>
       </c>
       <c r="D8" t="n">
         <v>84.40841549999902</v>
       </c>
       <c r="E8" t="n">
-        <v>15.47483290094511</v>
+        <v>15.40860610763543</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -622,13 +622,13 @@
         <v>808.4460394500002</v>
       </c>
       <c r="C9" t="n">
-        <v>75.95642701525074</v>
+        <v>75.63136046204914</v>
       </c>
       <c r="D9" t="n">
         <v>571.2733056999997</v>
       </c>
       <c r="E9" t="n">
-        <v>15.3422206507889</v>
+        <v>15.27656139085019</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -644,13 +644,13 @@
         <v>1293.29590675</v>
       </c>
       <c r="C10" t="n">
-        <v>75.9564270152503</v>
+        <v>75.63136046204872</v>
       </c>
       <c r="D10" t="n">
         <v>398.4264289000004</v>
       </c>
       <c r="E10" t="n">
-        <v>14.95178586021295</v>
+        <v>14.88779752262551</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -666,13 +666,13 @@
         <v>1581.354259500001</v>
       </c>
       <c r="C11" t="n">
-        <v>75.95642701525067</v>
+        <v>75.63136046204909</v>
       </c>
       <c r="D11" t="n">
         <v>177.6902766000006</v>
       </c>
       <c r="E11" t="n">
-        <v>13.97118856388833</v>
+        <v>13.91139683474761</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -688,13 +688,13 @@
         <v>1672.933951250001</v>
       </c>
       <c r="C12" t="n">
-        <v>73.18385650224171</v>
+        <v>72.88838073460009</v>
       </c>
       <c r="D12" t="n">
         <v>5.469106900000048</v>
       </c>
       <c r="E12" t="n">
-        <v>15.35593312765081</v>
+        <v>15.29393439807296</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         <v>1686.584306900001</v>
       </c>
       <c r="C13" t="n">
-        <v>73.18385650224167</v>
+        <v>72.88838073460003</v>
       </c>
       <c r="D13" t="n">
         <v>21.83160440000008</v>
       </c>
       <c r="E13" t="n">
-        <v>15.12245537558026</v>
+        <v>15.0613992994962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>1705.761583200001</v>
       </c>
       <c r="C14" t="n">
-        <v>73.18385650224067</v>
+        <v>72.88838073459904</v>
       </c>
       <c r="D14" t="n">
         <v>16.52294820000036</v>
       </c>
       <c r="E14" t="n">
-        <v>14.98661048548589</v>
+        <v>14.92610287562238</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -754,13 +754,13 @@
         <v>1752.354121300002</v>
       </c>
       <c r="C15" t="n">
-        <v>73.18385650224211</v>
+        <v>72.88838073460049</v>
       </c>
       <c r="D15" t="n">
         <v>76.66212800000102</v>
       </c>
       <c r="E15" t="n">
-        <v>14.87346764887797</v>
+        <v>14.81341684695131</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -776,13 +776,13 @@
         <v>1832.550988750003</v>
       </c>
       <c r="C16" t="n">
-        <v>73.18385650224052</v>
+        <v>72.88838073459888</v>
       </c>
       <c r="D16" t="n">
         <v>83.73160690000064</v>
       </c>
       <c r="E16" t="n">
-        <v>14.76076910005505</v>
+        <v>14.70117331227792</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -798,13 +798,13 @@
         <v>1916.583965000003</v>
       </c>
       <c r="C17" t="n">
-        <v>73.18385650224269</v>
+        <v>72.88838073460106</v>
       </c>
       <c r="D17" t="n">
         <v>84.33434559999947</v>
       </c>
       <c r="E17" t="n">
-        <v>14.73123680489396</v>
+        <v>14.67176025212302</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         <v>1999.568722800002</v>
       </c>
       <c r="C18" t="n">
-        <v>73.18385650224336</v>
+        <v>72.88838073460171</v>
       </c>
       <c r="D18" t="n">
         <v>81.63516999999906</v>
       </c>
       <c r="E18" t="n">
-        <v>14.67766024685064</v>
+        <v>14.61840000646567</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -842,13 +842,13 @@
         <v>2430.899536050001</v>
       </c>
       <c r="C19" t="n">
-        <v>73.18385650224134</v>
+        <v>72.88838073459972</v>
       </c>
       <c r="D19" t="n">
         <v>781.0264564999987</v>
       </c>
       <c r="E19" t="n">
-        <v>14.51703612958888</v>
+        <v>14.45842440018186</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -864,13 +864,13 @@
         <v>2834.3480817</v>
       </c>
       <c r="C20" t="n">
-        <v>73.18385650224174</v>
+        <v>72.8883807346001</v>
       </c>
       <c r="D20" t="n">
         <v>25.87063480000002</v>
       </c>
       <c r="E20" t="n">
-        <v>14.30222248176297</v>
+        <v>14.24447805056248</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -886,13 +886,13 @@
         <v>2953.035025550001</v>
       </c>
       <c r="C21" t="n">
-        <v>73.18385650224046</v>
+        <v>72.88838073459885</v>
       </c>
       <c r="D21" t="n">
         <v>211.5032529000012</v>
       </c>
       <c r="E21" t="n">
-        <v>13.32435602740913</v>
+        <v>13.27055967786299</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         <v>3059.570173650001</v>
       </c>
       <c r="C22" t="n">
-        <v>70.40257648953306</v>
+        <v>70.1288368750642</v>
       </c>
       <c r="D22" t="n">
         <v>1.567043299999998</v>
       </c>
       <c r="E22" t="n">
-        <v>14.79436083831988</v>
+        <v>14.7368373379861</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -930,13 +930,13 @@
         <v>3072.98135555</v>
       </c>
       <c r="C23" t="n">
-        <v>70.40257648953471</v>
+        <v>70.12883687506584</v>
       </c>
       <c r="D23" t="n">
         <v>25.25532049999945</v>
       </c>
       <c r="E23" t="n">
-        <v>14.7904881352098</v>
+        <v>14.73297969273766</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -952,13 +952,13 @@
         <v>3088.95321975</v>
       </c>
       <c r="C24" t="n">
-        <v>70.40257648953188</v>
+        <v>70.12883687506303</v>
       </c>
       <c r="D24" t="n">
         <v>6.688407900000158</v>
       </c>
       <c r="E24" t="n">
-        <v>14.72864664758234</v>
+        <v>14.67137865746046</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -974,13 +974,13 @@
         <v>3103.581574750001</v>
       </c>
       <c r="C25" t="n">
-        <v>70.40257648953241</v>
+        <v>70.12883687506356</v>
       </c>
       <c r="D25" t="n">
         <v>22.56830210000037</v>
       </c>
       <c r="E25" t="n">
-        <v>14.65153563582599</v>
+        <v>14.59456746908675</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -996,13 +996,13 @@
         <v>3121.662657700001</v>
       </c>
       <c r="C26" t="n">
-        <v>70.40257648953315</v>
+        <v>70.12883687506428</v>
       </c>
       <c r="D26" t="n">
         <v>13.59386380000013</v>
       </c>
       <c r="E26" t="n">
-        <v>14.26424647761509</v>
+        <v>14.20878417032224</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>3165.02391395</v>
       </c>
       <c r="C27" t="n">
-        <v>70.40257648953462</v>
+        <v>70.12883687506574</v>
       </c>
       <c r="D27" t="n">
         <v>73.12864869999864</v>
       </c>
       <c r="E27" t="n">
-        <v>14.17359421845011</v>
+        <v>14.11848438567896</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         <v>3257.862032449999</v>
       </c>
       <c r="C28" t="n">
-        <v>70.40257648953305</v>
+        <v>70.1288368750642</v>
       </c>
       <c r="D28" t="n">
         <v>112.5475882999999</v>
       </c>
       <c r="E28" t="n">
-        <v>14.1006036429379</v>
+        <v>14.04577761245065</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1062,13 +1062,13 @@
         <v>3354.749565099999</v>
       </c>
       <c r="C29" t="n">
-        <v>70.40257648953332</v>
+        <v>70.12883687506445</v>
       </c>
       <c r="D29" t="n">
         <v>81.22747699999947</v>
       </c>
       <c r="E29" t="n">
-        <v>14.06700143302371</v>
+        <v>14.01230605480014</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1084,13 +1084,13 @@
         <v>3399.043628699999</v>
       </c>
       <c r="C30" t="n">
-        <v>70.40257648953073</v>
+        <v>70.12883687506189</v>
       </c>
       <c r="D30" t="n">
         <v>7.360650200000133</v>
       </c>
       <c r="E30" t="n">
-        <v>14.00916613222111</v>
+        <v>13.95469562947418</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1106,13 +1106,13 @@
         <v>3508.499813949999</v>
       </c>
       <c r="C31" t="n">
-        <v>70.40257648953249</v>
+        <v>70.12883687506364</v>
       </c>
       <c r="D31" t="n">
         <v>211.5517203</v>
       </c>
       <c r="E31" t="n">
-        <v>13.99532699412826</v>
+        <v>13.94091030078029</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1128,13 +1128,13 @@
         <v>3971.221430399999</v>
       </c>
       <c r="C32" t="n">
-        <v>70.4025764895329</v>
+        <v>70.12883687506405</v>
       </c>
       <c r="D32" t="n">
         <v>713.8915126000006</v>
       </c>
       <c r="E32" t="n">
-        <v>13.82200848067907</v>
+        <v>13.76826568515441</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1150,13 +1150,13 @@
         <v>4513.554228349999</v>
       </c>
       <c r="C33" t="n">
-        <v>70.40257648953413</v>
+        <v>70.12883687506528</v>
       </c>
       <c r="D33" t="n">
         <v>370.7740832999987</v>
       </c>
       <c r="E33" t="n">
-        <v>13.75922442590696</v>
+        <v>13.70572574762637</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1172,13 +1172,13 @@
         <v>4806.063114249999</v>
       </c>
       <c r="C34" t="n">
-        <v>70.40257648953354</v>
+        <v>70.12883687506468</v>
       </c>
       <c r="D34" t="n">
         <v>214.2436884999998</v>
       </c>
       <c r="E34" t="n">
-        <v>13.7451793844565</v>
+        <v>13.69173531616923</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1194,13 +1194,13 @@
         <v>4963.7212832</v>
       </c>
       <c r="C35" t="n">
-        <v>70.40257648953228</v>
+        <v>70.12883687506343</v>
       </c>
       <c r="D35" t="n">
         <v>101.0726494000005</v>
       </c>
       <c r="E35" t="n">
-        <v>13.22038693094298</v>
+        <v>13.16898336303317</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1216,13 +1216,13 @@
         <v>5023.29335485</v>
       </c>
       <c r="C36" t="n">
-        <v>70.40257648953227</v>
+        <v>70.12883687506341</v>
       </c>
       <c r="D36" t="n">
         <v>18.07149390000007</v>
       </c>
       <c r="E36" t="n">
-        <v>12.85038072264165</v>
+        <v>12.80041581453468</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>labels</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,6 +486,9 @@
           <t>11</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>120.9740729060383</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +511,9 @@
           <t>19</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>112.076463677843</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,6 +536,9 @@
           <t>30</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>112.0755578132838</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,6 +561,9 @@
           <t>16</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>103.2866856784341</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
           <t>35</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>73.70744225578017</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,6 +611,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>73.34851305041893</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -613,6 +636,9 @@
           <t>21</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>72.74344376557065</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -635,6 +661,9 @@
           <t>25</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>72.61276624594696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -657,6 +686,9 @@
           <t>17</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>72.22802765696419</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,6 +711,9 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>71.26173666739459</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -701,6 +736,9 @@
           <t>13</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>70.02092640764135</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -723,6 +761,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>69.79113870985684</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -745,6 +786,9 @@
           <t>28</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>69.65744081241598</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -767,6 +811,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>69.54608616849707</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -789,6 +836,9 @@
           <t>24</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>69.43516879051076</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -811,6 +861,9 @@
           <t>31</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>69.4061032454856</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -833,6 +886,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>69.3533734508103</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -855,6 +911,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>69.19528795535228</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -877,6 +936,9 @@
           <t>29</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>68.98386938056805</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -899,6 +961,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>68.02145784758618</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -921,6 +986,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>67.08566446157</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -943,6 +1011,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>67.081855844953</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -965,6 +1036,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>67.02103772624456</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -987,6 +1061,9 @@
           <t>9</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>66.94520276744265</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1009,6 +1086,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>66.5643225703251</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1031,6 +1111,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>66.47517044817732</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1053,6 +1136,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>66.4033877395736</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1075,6 +1161,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>66.37034158771499</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1097,6 +1186,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>66.31346336041747</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1119,6 +1211,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>66.29985323595918</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1141,6 +1236,9 @@
           <t>27</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>66.12940284206843</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1163,6 +1261,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>66.06765775406343</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1185,6 +1286,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>66.05384513358936</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1207,6 +1311,9 @@
           <t>26</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>65.53773708124019</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1228,6 +1335,9 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="G36" t="n">
+        <v>65.17385383130977</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>labels</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,6 +486,9 @@
           <t>11</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>124.0988590466744</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -503,6 +511,9 @@
           <t>19</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>114.5686784684949</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -525,6 +536,9 @@
           <t>30</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>114.986161301832</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,6 +561,9 @@
           <t>16</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>105.8799120950807</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
           <t>35</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>76.20043765007235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -591,6 +611,9 @@
           <t>15</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>75.8383381349549</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -613,6 +636,9 @@
           <t>21</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>75.2279244617752</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -635,6 +661,9 @@
           <t>25</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>75.09609270836603</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -657,6 +686,9 @@
           <t>17</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>74.70795584338889</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -679,6 +711,9 @@
           <t>7</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>73.73312990679953</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -701,6 +736,9 @@
           <t>13</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>71.98668554822081</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -723,6 +761,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>71.75498376218047</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -745,6 +786,9 @@
           <t>28</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>71.62017218642778</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -767,6 +811,9 @@
           <t>18</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>71.50788997929203</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -789,6 +836,9 @@
           <t>24</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>71.39604868043159</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -811,6 +861,9 @@
           <t>31</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>71.36674102488917</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -833,6 +886,9 @@
           <t>22</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>71.31357200095269</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -855,6 +911,9 @@
           <t>20</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>71.15416968308342</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -877,6 +936,9 @@
           <t>29</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>70.94099003137926</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -899,6 +961,9 @@
           <t>34</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>69.97056179153985</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -921,6 +986,9 @@
           <t>33</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>68.7246714912639</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -943,6 +1011,9 @@
           <t>14</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>68.72083232133369</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -965,6 +1036,9 @@
           <t>1</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>68.65952631024352</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -987,6 +1061,9 @@
           <t>9</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>68.58308299163964</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1009,6 +1086,9 @@
           <t>32</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>68.19914731450348</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1031,6 +1111,9 @@
           <t>5</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>68.10928000020374</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1053,6 +1136,9 @@
           <t>12</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>68.03692143957757</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1075,6 +1161,9 @@
           <t>23</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>68.00361018636306</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1097,6 +1186,9 @@
           <t>2</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>67.94627567310394</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1119,6 +1211,9 @@
           <t>8</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>67.93255636611616</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1141,6 +1236,9 @@
           <t>27</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>67.76073859272751</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1163,6 +1261,9 @@
           <t>4</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>67.69849817604948</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1185,6 +1286,9 @@
           <t>6</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>67.68457474859153</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1207,6 +1311,9 @@
           <t>26</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>67.16432639739435</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1228,6 +1335,9 @@
         <is>
           <t>3</t>
         </is>
+      </c>
+      <c r="G36" t="n">
+        <v>66.797524019592</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>labels</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,9 +481,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>120.9740729060383</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,9 +503,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>112.076463677843</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,9 +525,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>112.0755578132838</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,9 +547,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>103.2866856784341</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,9 +569,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>73.70744225578017</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,9 +591,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>73.34851305041893</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,9 +613,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>72.74344376557065</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,9 +635,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>72.61276624594696</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -686,9 +657,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>72.22802765696419</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -711,9 +679,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>71.26173666739459</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,9 +701,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>70.02092640764135</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -761,9 +723,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>69.79113870985684</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -786,9 +745,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>69.65744081241598</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -811,9 +767,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>69.54608616849707</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -836,9 +789,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>69.43516879051076</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -861,9 +811,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>69.4061032454856</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -886,9 +833,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>69.3533734508103</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -911,9 +855,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>69.19528795535228</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,9 +877,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>68.98386938056805</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,9 +899,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>68.02145784758618</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -986,9 +921,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>67.08566446157</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1011,9 +943,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>67.081855844953</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1036,9 +965,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>67.02103772624456</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1061,9 +987,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>66.94520276744265</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1086,9 +1009,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>66.5643225703251</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1111,9 +1031,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>66.47517044817732</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1136,9 +1053,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>66.4033877395736</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1161,9 +1075,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>66.37034158771499</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1186,9 +1097,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>66.31346336041747</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1211,9 +1119,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>66.29985323595918</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1236,9 +1141,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>66.12940284206843</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1261,9 +1163,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>66.06765775406343</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1286,9 +1185,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>66.05384513358936</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1311,9 +1207,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>65.53773708124019</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1335,9 +1228,6 @@
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="G36" t="n">
-        <v>65.17385383130977</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,6 @@
           <t>labels</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,9 +481,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>124.0988590466744</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,9 +503,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>114.5686784684949</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,9 +525,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>114.986161301832</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -561,9 +547,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>105.8799120950807</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,9 +569,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>76.20043765007235</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -611,9 +591,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>75.8383381349549</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,9 +613,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>75.2279244617752</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -661,9 +635,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>75.09609270836603</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -686,9 +657,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>74.70795584338889</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -711,9 +679,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>73.73312990679953</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -736,9 +701,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>71.98668554822081</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -761,9 +723,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>71.75498376218047</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -786,9 +745,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>71.62017218642778</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -811,9 +767,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>71.50788997929203</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -836,9 +789,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>71.39604868043159</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -861,9 +811,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>71.36674102488917</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -886,9 +833,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>71.31357200095269</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -911,9 +855,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>71.15416968308342</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -936,9 +877,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>70.94099003137926</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -961,9 +899,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>69.97056179153985</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -986,9 +921,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>68.7246714912639</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1011,9 +943,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>68.72083232133369</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1036,9 +965,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>68.65952631024352</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1061,9 +987,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>68.58308299163964</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1086,9 +1009,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>68.19914731450348</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1111,9 +1031,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>68.10928000020374</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1136,9 +1053,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>68.03692143957757</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1161,9 +1075,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>68.00361018636306</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1186,9 +1097,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>67.94627567310394</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1211,9 +1119,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>67.93255636611616</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1236,9 +1141,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>67.76073859272751</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1261,9 +1163,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>67.69849817604948</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1286,9 +1185,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>67.68457474859153</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1311,9 +1207,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>67.16432639739435</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1335,9 +1228,6 @@
         <is>
           <t>3</t>
         </is>
-      </c>
-      <c r="G36" t="n">
-        <v>66.797524019592</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/visualizations/bar_all_info_heating.xlsx
+++ b/visualizations/bar_all_info_heating.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
